--- a/HAL_Assignment_1.xlsx
+++ b/HAL_Assignment_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/563898f0287c5698/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F147B4-CDD0-49CB-9D5B-2F5F1BEE6866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{45F147B4-CDD0-49CB-9D5B-2F5F1BEE6866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9011B4E-538F-4EF8-9F01-45CB7EFAFB87}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E16D836-31FE-4F49-84E1-84E71A7E48AB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Ambuj</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Nishant</t>
   </si>
   <si>
-    <t>Saif </t>
-  </si>
-  <si>
     <t>Ishaan</t>
   </si>
   <si>
@@ -57,13 +54,31 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Sajvel</t>
+  </si>
+  <si>
+    <t>J.Mahesh</t>
+  </si>
+  <si>
+    <t>Prahalad</t>
+  </si>
+  <si>
+    <t>Md.Saif </t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t>Akanksha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,60 +450,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB904E2-F922-4BE0-882A-F00D3EAFABEF}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
